--- a/Documentation/v1_0/Tricorder_BOM_rev2.xlsx
+++ b/Documentation/v1_0/Tricorder_BOM_rev2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbparks/Documents/GitHub Repositories/TI_Tricorder/Documentation/rev2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mbparks/Documents/GitHub Repositories/TI_Tricorder/Documentation/v1_0/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="5580" yWindow="1200" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>Part</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>PINHD-2X4</t>
   </si>
   <si>
-    <t>LED1</t>
-  </si>
-  <si>
     <t>LEDCHIPLED_0603</t>
   </si>
   <si>
@@ -430,6 +424,18 @@
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/PPPC061LGBN-RC/S5481-ND/775939</t>
+  </si>
+  <si>
+    <t>A1, A2</t>
+  </si>
+  <si>
+    <t>LED1, LED2</t>
+  </si>
+  <si>
+    <t>0.01u</t>
+  </si>
+  <si>
+    <t>C0603C103K5RACTU</t>
   </si>
 </sst>
 </file>
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -812,16 +818,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K1">
         <v>8</v>
@@ -832,25 +838,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
         <v>77</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -861,28 +867,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -893,28 +899,28 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -925,28 +931,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <v>6</v>
@@ -957,25 +963,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -983,25 +989,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1009,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1035,22 +1041,22 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1058,22 +1064,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1081,25 +1087,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1107,25 +1113,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1">
         <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1133,25 +1139,25 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1159,25 +1165,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1185,25 +1191,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1211,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1234,25 +1240,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1260,25 +1266,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,25 +1292,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>37</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1312,25 +1318,25 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1338,25 +1344,25 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1364,25 +1370,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1390,25 +1396,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1416,25 +1422,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1442,25 +1448,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>56</v>
-      </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/v1_0/Tricorder_BOM_rev2.xlsx
+++ b/Documentation/v1_0/Tricorder_BOM_rev2.xlsx
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
